--- a/Comparison/Comparison.xlsx
+++ b/Comparison/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8040E52-721D-47BE-AC9A-F1D564B7CB6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81B95D9-C49E-4CE0-9D1D-98C7DFDC24C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{943A4F01-DEB4-463A-9045-377A0CA03FAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>Works with compiled binaries</t>
   </si>
@@ -236,7 +236,49 @@
     <t>2-63%</t>
   </si>
   <si>
-    <t>x2</t>
+    <t>x2 + 9-30% for nops</t>
+  </si>
+  <si>
+    <t>10% size increase</t>
+  </si>
+  <si>
+    <t>Meta-data in ROM, Hardware Security for controller</t>
+  </si>
+  <si>
+    <t>PicoRV (Implementation on RISC-V ISA)</t>
+  </si>
+  <si>
+    <t>Sequential (Only number/hash of instructions)</t>
+  </si>
+  <si>
+    <t>CFG+#of instructions+hash of instructions</t>
+  </si>
+  <si>
+    <t>Small # of ROP &amp; JOP attacks will still work</t>
+  </si>
+  <si>
+    <t>HCFI</t>
+  </si>
+  <si>
+    <t>Christoulakis2016</t>
+  </si>
+  <si>
+    <t>Upon violation</t>
+  </si>
+  <si>
+    <t>Label/Shadow stack</t>
+  </si>
+  <si>
+    <t>2.5% size</t>
+  </si>
+  <si>
+    <t>Leon3</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>CFG/Shadow stack</t>
   </si>
 </sst>
 </file>
@@ -282,7 +324,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -614,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9B8A0-2994-4960-8D89-0D799F9E0B88}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,36 +1059,174 @@
       <c r="C6" t="s">
         <v>63</v>
       </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" t="s">
         <v>64</v>
       </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" t="s">
+        <v>69</v>
+      </c>
       <c r="S6" t="s">
         <v>68</v>
       </c>
+      <c r="T6" t="s">
+        <v>68</v>
+      </c>
       <c r="U6" t="s">
         <v>67</v>
       </c>
+      <c r="V6" t="s">
+        <v>71</v>
+      </c>
       <c r="W6" t="s">
         <v>65</v>
       </c>
       <c r="X6" t="s">
         <v>66</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="V7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:Z3">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:Z34">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(P4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(P6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(P4))=0</formula>
+      <formula>LEN(TRIM(P7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparison/Comparison.xlsx
+++ b/Comparison/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81B95D9-C49E-4CE0-9D1D-98C7DFDC24C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7E1D3-D101-4AA4-B821-CEADC67249E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{943A4F01-DEB4-463A-9045-377A0CA03FAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
   <si>
     <t>Works with compiled binaries</t>
   </si>
@@ -272,13 +272,31 @@
     <t>2.5% size</t>
   </si>
   <si>
-    <t>Leon3</t>
-  </si>
-  <si>
     <t>Interrupt</t>
   </si>
   <si>
     <t>CFG/Shadow stack</t>
+  </si>
+  <si>
+    <t>Davi2015</t>
+  </si>
+  <si>
+    <t>Hafix</t>
+  </si>
+  <si>
+    <t>Backward edge</t>
+  </si>
+  <si>
+    <t>Leon3 / SPARC V8</t>
+  </si>
+  <si>
+    <t>1-6%</t>
+  </si>
+  <si>
+    <t>2-8% size</t>
+  </si>
+  <si>
+    <t>Intel Siskiyou Peak, SPARC</t>
   </si>
 </sst>
 </file>
@@ -324,7 +342,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -670,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9B8A0-2994-4960-8D89-0D799F9E0B88}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,49 +1209,131 @@
       <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="2">
-        <v>0.06</v>
+      <c r="U7" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="V7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" t="s">
         <v>80</v>
-      </c>
-      <c r="W7" t="s">
-        <v>81</v>
       </c>
       <c r="X7" t="s">
         <v>66</v>
       </c>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:Z3">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:Z34">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(P4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(P6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(P7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(P7))=0</formula>
+      <formula>LEN(TRIM(P8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparison/Comparison.xlsx
+++ b/Comparison/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7E1D3-D101-4AA4-B821-CEADC67249E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2979E4-0B11-4977-B622-345C3AA8368B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{943A4F01-DEB4-463A-9045-377A0CA03FAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
   <si>
     <t>Works with compiled binaries</t>
   </si>
@@ -297,6 +297,45 @@
   </si>
   <si>
     <t>Intel Siskiyou Peak, SPARC</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>DeClercq2017b</t>
+  </si>
+  <si>
+    <t>Sequential instructions/ flows</t>
+  </si>
+  <si>
+    <t>Cycle overhead 13.7%</t>
+  </si>
+  <si>
+    <t>Hardware area increase: 28.2%, clock speed reduced by 84.6%</t>
+  </si>
+  <si>
+    <t>Processor reset</t>
+  </si>
+  <si>
+    <t>Encrypt+MAC (RECTANGLE-80)</t>
+  </si>
+  <si>
+    <t>Sullivan2016</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Attacker cannot touch code</t>
+  </si>
+  <si>
+    <t>1.78% area</t>
+  </si>
+  <si>
+    <t>Termination of process</t>
+  </si>
+  <si>
+    <t>Dependant on CFG policy (assumed 100%)</t>
   </si>
 </sst>
 </file>
@@ -332,12 +371,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,16 +735,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9B8A0-2994-4960-8D89-0D799F9E0B88}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1303,6 +1343,160 @@
       </c>
       <c r="Z8" s="2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Comparison.xlsx
+++ b/Comparison/Comparison.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2979E4-0B11-4977-B622-345C3AA8368B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C7F1CA-D27E-4A21-9E20-80C57879C59A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{943A4F01-DEB4-463A-9045-377A0CA03FAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{943A4F01-DEB4-463A-9045-377A0CA03FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="108">
   <si>
     <t>Works with compiled binaries</t>
   </si>
@@ -68,12 +70,6 @@
     <t>Provisioning Method</t>
   </si>
   <si>
-    <t>How is it secured (crypto)</t>
-  </si>
-  <si>
-    <t>Storage overhead</t>
-  </si>
-  <si>
     <t>CPU overhead</t>
   </si>
   <si>
@@ -128,9 +124,6 @@
     <t>BBs</t>
   </si>
   <si>
-    <t>Same code for verifier and prover</t>
-  </si>
-  <si>
     <t>TPM / digsig for report</t>
   </si>
   <si>
@@ -215,9 +208,6 @@
     <t>? - 100% Assumed</t>
   </si>
   <si>
-    <t>Code assembled for particular device</t>
-  </si>
-  <si>
     <t>CCFI-Cache</t>
   </si>
   <si>
@@ -266,9 +256,6 @@
     <t>Upon violation</t>
   </si>
   <si>
-    <t>Label/Shadow stack</t>
-  </si>
-  <si>
     <t>2.5% size</t>
   </si>
   <si>
@@ -336,19 +323,58 @@
   </si>
   <si>
     <t>Dependant on CFG policy (assumed 100%)</t>
+  </si>
+  <si>
+    <t>Compatible with compiled binaries</t>
+  </si>
+  <si>
+    <t>Compatible with external libraries</t>
+  </si>
+  <si>
+    <t>Can provide binding</t>
+  </si>
+  <si>
+    <t>Compatible with embedded systems</t>
+  </si>
+  <si>
+    <t>Security provided by</t>
+  </si>
+  <si>
+    <t>FPGA area overhead</t>
+  </si>
+  <si>
+    <t>Compatible ISAs</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -359,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -367,57 +393,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -735,19 +755,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9B8A0-2994-4960-8D89-0D799F9E0B88}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>1</v>
       </c>
@@ -782,755 +805,1937 @@
         <v>5</v>
       </c>
       <c r="P1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1">
+        <v>10</v>
+      </c>
+      <c r="T1">
+        <v>11</v>
+      </c>
+      <c r="U1">
+        <v>12</v>
+      </c>
+      <c r="V1">
+        <v>13</v>
+      </c>
+      <c r="W1">
+        <v>14</v>
+      </c>
+      <c r="X1">
+        <v>15</v>
+      </c>
+      <c r="Y1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q1">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R1">
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S1">
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T1">
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U1">
-        <v>11</v>
-      </c>
-      <c r="V1">
+      <c r="P2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W1">
+      <c r="R2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X1">
+      <c r="T2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y1">
+      <c r="U2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z1">
+      <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" t="s">
-        <v>29</v>
-      </c>
       <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="T4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="P5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" t="s">
-        <v>68</v>
       </c>
       <c r="U6" t="s">
         <v>67</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
+      <c r="W7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W7" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" t="s">
-        <v>66</v>
-      </c>
       <c r="Y7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="U8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="V8" t="s">
-        <v>88</v>
-      </c>
-      <c r="W8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="2">
+      <c r="Y8" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V9" t="s">
-        <v>85</v>
-      </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="X9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="V10" t="s">
-        <v>85</v>
-      </c>
-      <c r="W10" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>101</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:Z3">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A3:I3 D11:Y34 D3:I10 K3:Y10">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:Z34">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(D3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(P4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(P6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(P7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(P8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BB0F9C-3A8A-4A7D-9C59-B1CB1617FDD3}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+    </row>
+    <row r="2" spans="1:27" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="L1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BCF474-7BA8-451D-9706-B1F8CCD60719}">
+  <dimension ref="A1:Y22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" t="s">
+        <v>90</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" t="s">
+        <v>93</v>
+      </c>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="89.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" t="s">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="T20" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="T22" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>